--- a/ui-testsuite/src/main/resources/TestData/Import_ATR_ExistedRegion.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Import_ATR_ExistedRegion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="217">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>Latin America-test</t>
+  </si>
+  <si>
+    <t>6410241166</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -691,6 +694,11 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1105,162 +1113,162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="14.42578125" style="2" customWidth="1"/>
-    <col min="90" max="90" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="24.28515625" style="1" customWidth="1"/>
-    <col min="94" max="94" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="24" style="1" customWidth="1"/>
-    <col min="98" max="98" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.42578125" style="2" customWidth="1"/>
-    <col min="106" max="106" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="25.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="14" style="1" customWidth="1"/>
-    <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="15.5703125" style="1" customWidth="1"/>
-    <col min="138" max="138" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="21.140625" style="1" customWidth="1"/>
-    <col min="145" max="145" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="26.28515625" style="1" customWidth="1"/>
-    <col min="148" max="148" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.42578125" style="1" customWidth="1"/>
-    <col min="158" max="158" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.5703125" style="1" customWidth="1"/>
-    <col min="163" max="163" width="9.140625" style="1" customWidth="1"/>
-    <col min="164" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="13.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="18.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.28515625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="47.140625" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="47.140625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="32.5703125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="false"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="1" width="39.0" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="28.140625" collapsed="false"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="false"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="false"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="false"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="12" width="14.7109375" collapsed="false"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="12" width="12.7109375" collapsed="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="10.5703125" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" style="1" width="19.140625" collapsed="false"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="12" width="11.85546875" collapsed="false"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="12" width="12.7109375" collapsed="false"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="false"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="19.140625" collapsed="false"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="false"/>
+    <col min="36" max="37" bestFit="true" customWidth="true" style="10" width="14.140625" collapsed="false"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="false"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="10" width="11.140625" collapsed="false"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="false"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="false"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="false"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="false"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="false"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="false"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="false"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="false"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="false"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="false"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="false"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="19.140625" collapsed="false"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="false"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="false"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="false"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="false"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="false"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="false"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="false"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="19.7109375" collapsed="false"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="false"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="22.5703125" collapsed="false"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="false"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="false"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="false"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="1" width="14.28515625" collapsed="false"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="1" width="19.5703125" collapsed="false"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="false"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="12" width="17.28515625" collapsed="false"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="false"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="1" width="14.28515625" collapsed="false"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="false"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="false"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="false"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="false"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="false"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="false"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="false"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="1" width="25.42578125" collapsed="false"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="false"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="false"/>
+    <col min="84" max="86" bestFit="true" customWidth="true" style="1" width="30.85546875" collapsed="false"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="false"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" style="1" width="39.0" collapsed="false"/>
+    <col min="89" max="89" customWidth="true" style="2" width="14.42578125" collapsed="false"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="1" width="17.140625" collapsed="false"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="false"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="false"/>
+    <col min="93" max="93" customWidth="true" style="1" width="24.28515625" collapsed="false"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="3" width="9.140625" collapsed="false"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="4" width="17.140625" collapsed="false"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="4" width="15.5703125" collapsed="false"/>
+    <col min="97" max="97" customWidth="true" style="1" width="24.0" collapsed="false"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="1" width="24.7109375" collapsed="false"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="4" width="21.42578125" collapsed="false"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="4" width="19.7109375" collapsed="false"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="false"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="false"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="1" width="39.42578125" collapsed="false"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="false"/>
+    <col min="105" max="105" customWidth="true" style="2" width="14.42578125" collapsed="false"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="false"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="false"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="12" width="17.0" collapsed="false"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="12" width="16.140625" collapsed="false"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="false"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="17" width="25.28515625" collapsed="false"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="17" width="22.5703125" collapsed="false"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="false"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="false"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" style="2" width="16.140625" collapsed="false"/>
+    <col min="116" max="116" customWidth="true" style="1" width="14.0" collapsed="false"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="false"/>
+    <col min="118" max="118" bestFit="true" customWidth="true" style="12" width="12.0" collapsed="false"/>
+    <col min="119" max="119" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="false"/>
+    <col min="120" max="120" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="false"/>
+    <col min="121" max="121" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="false"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="1" width="16.85546875" collapsed="false"/>
+    <col min="123" max="123" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="false"/>
+    <col min="124" max="124" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="false"/>
+    <col min="125" max="125" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="false"/>
+    <col min="126" max="126" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="false"/>
+    <col min="127" max="127" bestFit="true" customWidth="true" style="1" width="19.7109375" collapsed="false"/>
+    <col min="128" max="128" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="false"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" style="1" width="29.0" collapsed="false"/>
+    <col min="130" max="130" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="false"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="false"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="false"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="false"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="1" width="27.42578125" collapsed="false"/>
+    <col min="135" max="135" bestFit="true" customWidth="true" style="1" width="25.85546875" collapsed="false"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="false"/>
+    <col min="137" max="137" customWidth="true" style="1" width="15.5703125" collapsed="false"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" style="21" width="20.7109375" collapsed="false"/>
+    <col min="139" max="139" bestFit="true" customWidth="true" style="1" width="24.5703125" collapsed="false"/>
+    <col min="140" max="140" bestFit="true" customWidth="true" style="1" width="13.42578125" collapsed="false"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="false"/>
+    <col min="142" max="143" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="false"/>
+    <col min="144" max="144" customWidth="true" style="1" width="21.140625" collapsed="false"/>
+    <col min="145" max="145" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="false"/>
+    <col min="146" max="146" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="false"/>
+    <col min="147" max="147" customWidth="true" style="1" width="26.28515625" collapsed="false"/>
+    <col min="148" max="148" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="false"/>
+    <col min="149" max="149" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="false"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" style="1" width="31.85546875" collapsed="false"/>
+    <col min="151" max="151" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="false"/>
+    <col min="152" max="152" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="false"/>
+    <col min="153" max="153" bestFit="true" customWidth="true" style="12" width="27.85546875" collapsed="false"/>
+    <col min="154" max="154" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="false"/>
+    <col min="155" max="155" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="false"/>
+    <col min="156" max="156" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="false"/>
+    <col min="157" max="157" customWidth="true" style="1" width="11.42578125" collapsed="false"/>
+    <col min="158" max="158" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="false"/>
+    <col min="159" max="159" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="false"/>
+    <col min="160" max="160" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="false"/>
+    <col min="161" max="161" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="false"/>
+    <col min="162" max="162" customWidth="true" style="1" width="16.5703125" collapsed="false"/>
+    <col min="163" max="163" customWidth="true" style="1" width="9.140625" collapsed="false"/>
+    <col min="164" max="16384" style="1" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,8 +1775,8 @@
       <c r="E2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="2">
-        <v>2152430423</v>
+      <c r="F2" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>166</v>

--- a/ui-testsuite/src/main/resources/TestData/Import_ATR_ExistedRegion.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Import_ATR_ExistedRegion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -666,13 +666,13 @@
     <t>FUTURE</t>
   </si>
   <si>
-    <t>Q3</t>
-  </si>
-  <si>
     <t>Latin America-test</t>
   </si>
   <si>
     <t>6410241166</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -694,11 +694,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1107,168 +1102,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BZ7" sqref="BZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="13.42578125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="18.85546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="47.140625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="47.140625" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="32.5703125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="false"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="1" width="39.0" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="28.140625" collapsed="false"/>
-    <col min="22" max="23" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="12" width="14.7109375" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="12" width="12.7109375" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="10.5703125" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" style="1" width="19.140625" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="12" width="11.85546875" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="12" width="12.7109375" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="19.140625" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="false"/>
-    <col min="36" max="37" bestFit="true" customWidth="true" style="10" width="14.140625" collapsed="false"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="10" width="11.140625" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="false"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="false"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="false"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="false"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="false"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="false"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="false"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="false"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="false"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="false"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="false"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="19.140625" collapsed="false"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="false"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="false"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="false"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="false"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="false"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="false"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="false"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="19.7109375" collapsed="false"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="false"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="22.5703125" collapsed="false"/>
-    <col min="63" max="64" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="false"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="false"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="false"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="1" width="14.28515625" collapsed="false"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="1" width="19.5703125" collapsed="false"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="false"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="12" width="17.28515625" collapsed="false"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="false"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="1" width="14.28515625" collapsed="false"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="false"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="false"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="false"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="false"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="false"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="false"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="false"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" style="1" width="25.42578125" collapsed="false"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="false"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="false"/>
-    <col min="84" max="86" bestFit="true" customWidth="true" style="1" width="30.85546875" collapsed="false"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="false"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" style="1" width="39.0" collapsed="false"/>
-    <col min="89" max="89" customWidth="true" style="2" width="14.42578125" collapsed="false"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" style="1" width="17.140625" collapsed="false"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="false"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="false"/>
-    <col min="93" max="93" customWidth="true" style="1" width="24.28515625" collapsed="false"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="3" width="9.140625" collapsed="false"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" style="4" width="17.140625" collapsed="false"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" style="4" width="15.5703125" collapsed="false"/>
-    <col min="97" max="97" customWidth="true" style="1" width="24.0" collapsed="false"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="1" width="24.7109375" collapsed="false"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" style="4" width="21.42578125" collapsed="false"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="4" width="19.7109375" collapsed="false"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="false"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="false"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" style="1" width="39.42578125" collapsed="false"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="false"/>
-    <col min="105" max="105" customWidth="true" style="2" width="14.42578125" collapsed="false"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="false"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="false"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" style="12" width="17.0" collapsed="false"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" style="12" width="16.140625" collapsed="false"/>
-    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="false"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" style="17" width="25.28515625" collapsed="false"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" style="17" width="22.5703125" collapsed="false"/>
-    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="false"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="false"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" style="2" width="16.140625" collapsed="false"/>
-    <col min="116" max="116" customWidth="true" style="1" width="14.0" collapsed="false"/>
-    <col min="117" max="117" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="false"/>
-    <col min="118" max="118" bestFit="true" customWidth="true" style="12" width="12.0" collapsed="false"/>
-    <col min="119" max="119" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="false"/>
-    <col min="120" max="120" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="false"/>
-    <col min="121" max="121" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="false"/>
-    <col min="122" max="122" bestFit="true" customWidth="true" style="1" width="16.85546875" collapsed="false"/>
-    <col min="123" max="123" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="false"/>
-    <col min="124" max="124" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="false"/>
-    <col min="125" max="125" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="false"/>
-    <col min="126" max="126" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="false"/>
-    <col min="127" max="127" bestFit="true" customWidth="true" style="1" width="19.7109375" collapsed="false"/>
-    <col min="128" max="128" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="false"/>
-    <col min="129" max="129" bestFit="true" customWidth="true" style="1" width="29.0" collapsed="false"/>
-    <col min="130" max="130" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="false"/>
-    <col min="131" max="131" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="false"/>
-    <col min="132" max="132" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="false"/>
-    <col min="133" max="133" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="false"/>
-    <col min="134" max="134" bestFit="true" customWidth="true" style="1" width="27.42578125" collapsed="false"/>
-    <col min="135" max="135" bestFit="true" customWidth="true" style="1" width="25.85546875" collapsed="false"/>
-    <col min="136" max="136" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="false"/>
-    <col min="137" max="137" customWidth="true" style="1" width="15.5703125" collapsed="false"/>
-    <col min="138" max="138" bestFit="true" customWidth="true" style="21" width="20.7109375" collapsed="false"/>
-    <col min="139" max="139" bestFit="true" customWidth="true" style="1" width="24.5703125" collapsed="false"/>
-    <col min="140" max="140" bestFit="true" customWidth="true" style="1" width="13.42578125" collapsed="false"/>
-    <col min="141" max="141" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="false"/>
-    <col min="142" max="143" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="false"/>
-    <col min="144" max="144" customWidth="true" style="1" width="21.140625" collapsed="false"/>
-    <col min="145" max="145" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="false"/>
-    <col min="146" max="146" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="false"/>
-    <col min="147" max="147" customWidth="true" style="1" width="26.28515625" collapsed="false"/>
-    <col min="148" max="148" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="false"/>
-    <col min="149" max="149" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="false"/>
-    <col min="150" max="150" bestFit="true" customWidth="true" style="1" width="31.85546875" collapsed="false"/>
-    <col min="151" max="151" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="false"/>
-    <col min="152" max="152" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="false"/>
-    <col min="153" max="153" bestFit="true" customWidth="true" style="12" width="27.85546875" collapsed="false"/>
-    <col min="154" max="154" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="false"/>
-    <col min="155" max="155" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="false"/>
-    <col min="156" max="156" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="false"/>
-    <col min="157" max="157" customWidth="true" style="1" width="11.42578125" collapsed="false"/>
-    <col min="158" max="158" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="false"/>
-    <col min="159" max="159" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="false"/>
-    <col min="160" max="160" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="false"/>
-    <col min="161" max="161" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="false"/>
-    <col min="162" max="162" customWidth="true" style="1" width="16.5703125" collapsed="false"/>
-    <col min="163" max="163" customWidth="true" style="1" width="9.140625" collapsed="false"/>
-    <col min="164" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="14.42578125" style="2" customWidth="1"/>
+    <col min="90" max="90" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="24.28515625" style="1" customWidth="1"/>
+    <col min="94" max="94" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="24" style="1" customWidth="1"/>
+    <col min="98" max="98" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.42578125" style="2" customWidth="1"/>
+    <col min="106" max="106" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="25.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14" style="1" customWidth="1"/>
+    <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="15.5703125" style="1" customWidth="1"/>
+    <col min="138" max="138" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="21.140625" style="1" customWidth="1"/>
+    <col min="145" max="145" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="26.28515625" style="1" customWidth="1"/>
+    <col min="148" max="148" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.42578125" style="1" customWidth="1"/>
+    <col min="158" max="158" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="16.5703125" style="1" customWidth="1"/>
+    <col min="163" max="163" width="9.140625" style="1" customWidth="1"/>
+    <col min="164" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,7 +1762,7 @@
         <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>164</v>
@@ -1776,7 +1771,7 @@
         <v>165</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>166</v>
@@ -1905,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="BX2" s="1" t="s">
         <v>196</v>

--- a/ui-testsuite/src/main/resources/TestData/Import_ATR_ExistedRegion.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Import_ATR_ExistedRegion.xlsx
@@ -162,9 +162,6 @@
     <t>Sales Metric Code Hdr</t>
   </si>
   <si>
-    <t>CSTM</t>
-  </si>
-  <si>
     <t>ELA</t>
   </si>
   <si>
@@ -669,10 +666,13 @@
     <t>Latin America-test</t>
   </si>
   <si>
-    <t>6410241166</t>
-  </si>
-  <si>
     <t>Q2</t>
+  </si>
+  <si>
+    <t>3035157364</t>
+  </si>
+  <si>
+    <t>EOT</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BZ7" sqref="BZ7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,405 +1406,405 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BK1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BM1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BO1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BS1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BT1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CD1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CE1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CG1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="CW1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="6" t="s">
+      <c r="CX1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="6" t="s">
+      <c r="CY1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="15" t="s">
+      <c r="DB1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="15" t="s">
+      <c r="DC1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="15" t="s">
+      <c r="DD1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="11" t="s">
+      <c r="DE1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="11" t="s">
+      <c r="DF1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="15" t="s">
+      <c r="DG1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="18" t="s">
+      <c r="DH1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="18" t="s">
+      <c r="DI1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="16" t="s">
+      <c r="DJ1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="16" t="s">
+      <c r="DK1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="15" t="s">
+      <c r="DL1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DM1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DN1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="11" t="s">
+      <c r="DO1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="DP1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="DR1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="DS1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="8" t="s">
+      <c r="DT1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="8" t="s">
+      <c r="DU1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="8" t="s">
+      <c r="DV1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="8" t="s">
+      <c r="DW1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="8" t="s">
+      <c r="DX1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="8" t="s">
+      <c r="DY1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="8" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="7" t="s">
+      <c r="EA1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="7" t="s">
+      <c r="EB1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="EC1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="7" t="s">
+      <c r="ED1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="7" t="s">
+      <c r="EE1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="EF1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="7" t="s">
+      <c r="EG1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="7" t="s">
+      <c r="EH1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="20" t="s">
+      <c r="EI1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="7" t="s">
+      <c r="EJ1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="EK1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="EL1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="EM1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="EN1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="EO1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="7" t="s">
+      <c r="EP1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="9" t="s">
+      <c r="EQ1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="9" t="s">
+      <c r="ER1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="9" t="s">
+      <c r="ES1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="9" t="s">
+      <c r="ET1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="9" t="s">
+      <c r="EU1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="9" t="s">
+      <c r="EV1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="7" t="s">
+      <c r="EW1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="19" t="s">
+      <c r="EX1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="EY1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="6" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="6" t="s">
+      <c r="FA1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="8" t="s">
+      <c r="FB1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="8" t="s">
+      <c r="FC1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="8" t="s">
+      <c r="FD1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="7" t="s">
+      <c r="FE1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="7" t="s">
+      <c r="FF1" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="FF1" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>215</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="AA2" s="12">
         <v>42401</v>
@@ -1816,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AE2" s="12">
         <v>36494</v>
@@ -1825,124 +1825,124 @@
         <v>42461</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BH2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT2" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="BV2" s="1">
         <v>1</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BX2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CA2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CK2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CG2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CL2" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="CP2" s="3">
         <v>1</v>
@@ -1966,49 +1966,49 @@
         <v>3975.6923076923076</v>
       </c>
       <c r="CW2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DK2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="DL2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="CZ2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="DC2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="DF2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="DK2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DN2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="DO2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DM2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DN2" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DP2" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="DQ2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/ui-testsuite/src/main/resources/TestData/Import_ATR_ExistedRegion.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Import_ATR_ExistedRegion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="219">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -669,10 +669,16 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>3035157364</t>
-  </si>
-  <si>
     <t>EOT</t>
+  </si>
+  <si>
+    <t>5138248410</t>
+  </si>
+  <si>
+    <t>3667603208</t>
+  </si>
+  <si>
+    <t>2120313165</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -694,6 +700,16 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1102,168 +1118,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+      <selection activeCell="DD2" sqref="DD2:DE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="14.42578125" style="2" customWidth="1"/>
-    <col min="90" max="90" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="24.28515625" style="1" customWidth="1"/>
-    <col min="94" max="94" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="24" style="1" customWidth="1"/>
-    <col min="98" max="98" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.42578125" style="2" customWidth="1"/>
-    <col min="106" max="106" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="25.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="14" style="1" customWidth="1"/>
-    <col min="117" max="117" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="15.5703125" style="1" customWidth="1"/>
-    <col min="138" max="138" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="21.140625" style="1" customWidth="1"/>
-    <col min="145" max="145" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="26.28515625" style="1" customWidth="1"/>
-    <col min="148" max="148" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.42578125" style="1" customWidth="1"/>
-    <col min="158" max="158" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.5703125" style="1" customWidth="1"/>
-    <col min="163" max="163" width="9.140625" style="1" customWidth="1"/>
-    <col min="164" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="47.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="47.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="32.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="1" width="39.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="12" width="14.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="12" width="12.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="10.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="12" width="11.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="12" width="12.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="36" max="37" bestFit="true" customWidth="true" style="10" width="14.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="10" width="11.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="1" width="22.85546875" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="12" width="17.28515625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="11.5703125" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="1" width="25.42578125" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="84" max="86" bestFit="true" customWidth="true" style="1" width="30.85546875" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" style="1" width="39.0" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="1" width="27.28515625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="3" width="9.140625" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="4" width="17.140625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="4" width="15.5703125" collapsed="true"/>
+    <col min="97" max="97" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="1" width="24.7109375" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="4" width="21.42578125" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="4" width="19.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" style="1" width="39.42578125" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="105" max="105" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="12" width="17.0" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="12" width="16.140625" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="17" width="25.28515625" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" style="2" width="16.140625" collapsed="true"/>
+    <col min="116" max="116" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="118" max="118" bestFit="true" customWidth="true" style="12" width="12.0" collapsed="true"/>
+    <col min="119" max="119" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="120" max="120" bestFit="true" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="121" max="121" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="1" width="16.85546875" collapsed="true"/>
+    <col min="123" max="123" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="124" max="124" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="125" max="125" bestFit="true" customWidth="true" style="1" width="10.5703125" collapsed="true"/>
+    <col min="126" max="126" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="127" max="127" bestFit="true" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="128" max="128" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" style="1" width="29.0" collapsed="true"/>
+    <col min="130" max="130" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="1" width="16.42578125" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="1" width="27.42578125" collapsed="true"/>
+    <col min="135" max="135" bestFit="true" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="137" max="137" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" style="21" width="20.7109375" collapsed="true"/>
+    <col min="139" max="139" bestFit="true" customWidth="true" style="1" width="24.5703125" collapsed="true"/>
+    <col min="140" max="140" bestFit="true" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="142" max="143" bestFit="true" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="144" max="144" customWidth="true" style="1" width="21.140625" collapsed="true"/>
+    <col min="145" max="145" bestFit="true" customWidth="true" style="1" width="26.5703125" collapsed="true"/>
+    <col min="146" max="146" bestFit="true" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
+    <col min="147" max="147" customWidth="true" style="1" width="26.28515625" collapsed="true"/>
+    <col min="148" max="148" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="149" max="149" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" style="1" width="31.85546875" collapsed="true"/>
+    <col min="151" max="151" bestFit="true" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="152" max="152" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="153" max="153" bestFit="true" customWidth="true" style="12" width="27.85546875" collapsed="true"/>
+    <col min="154" max="154" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
+    <col min="155" max="155" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="156" max="156" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="157" max="157" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="158" max="158" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="159" max="159" bestFit="true" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="160" max="160" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="true"/>
+    <col min="161" max="161" bestFit="true" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="162" max="162" customWidth="true" style="1" width="16.5703125" collapsed="true"/>
+    <col min="163" max="163" customWidth="true" style="1" width="9.140625" collapsed="true"/>
+    <col min="164" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,7 +1422,7 @@
         <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AV1" s="6" t="s">
         <v>46</v>
@@ -1771,7 +1787,7 @@
         <v>164</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>165</v>
@@ -1976,6 +1992,12 @@
       </c>
       <c r="DC2" s="2" t="s">
         <v>203</v>
+      </c>
+      <c r="DD2" s="12">
+        <v>42382</v>
+      </c>
+      <c r="DE2" s="12">
+        <v>42656</v>
       </c>
       <c r="DF2" s="2" t="s">
         <v>194</v>
